--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1109,11 +1109,22 @@
       <c r="A58" s="7" t="n">
         <v>45419</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="4" t="n">
         <v>0.914255143232333</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>0.7270653995412013</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7723336700822629</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.005830988271037</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1120,11 +1120,33 @@
       <c r="A59" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="4" t="n">
         <v>0.7723336700822629</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>1.005830988271037</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>0.7953622146323925</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>0.6849193075122262</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6524182561307902</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9854914943168516</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1142,11 +1142,22 @@
       <c r="A61" s="7" t="n">
         <v>45422</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="4" t="n">
         <v>0.6524182561307902</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>0.9854914943168516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7470072812538566</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.060010035267155</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1153,11 +1153,22 @@
       <c r="A62" s="7" t="n">
         <v>45426</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="4" t="n">
         <v>0.7470072812538566</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>2.060010035267155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6482549183574666</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.004212822251672</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1164,11 +1164,22 @@
       <c r="A63" s="7" t="n">
         <v>45428</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="4" t="n">
         <v>0.6482549183574666</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>3.004212822251672</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6457704701035151</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1175,11 +1175,33 @@
       <c r="A64" s="7" t="n">
         <v>45429</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="4" t="n">
         <v>0.3763440860215054</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>0.6457704701035151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>0.6457704701035151</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6386431983017866</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7303807295073602</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1197,11 +1197,22 @@
       <c r="A66" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="4" t="n">
         <v>0.6386431983017866</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>0.7303807295073602</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5489162619921829</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6232266574803874</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1208,11 +1208,22 @@
       <c r="A67" s="7" t="n">
         <v>45433</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="4" t="n">
         <v>0.5489162619921829</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>0.6232266574803874</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6193639034359433</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.77195298709091</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1219,11 +1219,22 @@
       <c r="A68" s="7" t="n">
         <v>45434</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="4" t="n">
         <v>0.6193639034359433</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>0.77195298709091</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5964327850648899</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8308159354522519</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1230,11 +1230,22 @@
       <c r="A69" s="7" t="n">
         <v>45435</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="4" t="n">
         <v>0.5964327850648899</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>0.8308159354522519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4481980644778246</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.7723646104346473</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1241,11 +1241,22 @@
       <c r="A70" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="4" t="n">
         <v>0.4481980644778246</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>0.7723646104346473</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5836635843240863</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.133138880740761</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1252,11 +1252,22 @@
       <c r="A71" s="7" t="n">
         <v>45439</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="4" t="n">
         <v>0.5836635843240863</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>1.133138880740761</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8271968709256845</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9217237047172731</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1263,11 +1263,22 @@
       <c r="A72" s="7" t="n">
         <v>45440</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="4" t="n">
         <v>0.8271968709256845</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>0.9217237047172731</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8711261759822911</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.314564904520192</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1274,11 +1274,22 @@
       <c r="A73" s="7" t="n">
         <v>45441</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="4" t="n">
         <v>0.8711261759822911</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>1.314564904520192</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6022967265047519</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.057828716633447</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1285,11 +1285,22 @@
       <c r="A74" s="7" t="n">
         <v>45443</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="4" t="n">
         <v>0.6022967265047519</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>1.057828716633447</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7935695705940046</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.386127111248105</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1296,11 +1296,22 @@
       <c r="A75" s="7" t="n">
         <v>45446</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="4" t="n">
         <v>0.7935695705940046</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>1.386127111248105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8142878918754128</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.036178020246981</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1307,11 +1307,22 @@
       <c r="A76" s="7" t="n">
         <v>45447</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4" t="n">
         <v>0.8142878918754128</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>2.036178020246981</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8124852210924568</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.906166853628833</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1318,11 +1318,22 @@
       <c r="A77" s="7" t="n">
         <v>45448</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="4" t="n">
         <v>0.8124852210924568</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>1.906166853628833</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8710631633895946</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.892960819687084</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1329,11 +1329,22 @@
       <c r="A78" s="7" t="n">
         <v>45450</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="4" t="n">
         <v>0.8710631633895946</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>1.892960819687084</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7014705882352941</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.557304565384726</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1340,11 +1340,22 @@
       <c r="A79" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="4" t="n">
         <v>0.7014705882352941</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>2.557304565384726</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8946151066136611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.007825924468194</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1351,11 +1351,22 @@
       <c r="A80" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="4" t="n">
         <v>0.8946151066136611</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>2.007825924468194</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9408279220779221</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.698057457657147</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1362,11 +1362,22 @@
       <c r="A81" s="7" t="n">
         <v>45455</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="4" t="n">
         <v>0.9408279220779221</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>1.698057457657147</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6878884231825408</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.528778845513372</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1373,11 +1373,22 @@
       <c r="A82" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="4" t="n">
         <v>0.6878884231825408</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>1.528778845513372</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9844382197323374</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.935300970221241</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1384,11 +1384,22 @@
       <c r="A83" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="4" t="n">
         <v>0.9844382197323374</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>1.935300970221241</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.216915422885572</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.990271797478711</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1395,11 +1395,22 @@
       <c r="A84" s="7" t="n">
         <v>45460</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="4" t="n">
         <v>1.216915422885572</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>4.990271797478711</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7919700436862909</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.94379678258436</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1406,11 +1406,22 @@
       <c r="A85" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="4" t="n">
         <v>0.7919700436862909</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>4.94379678258436</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.065681137724551</v>
+      </c>
+      <c r="C86" t="n">
+        <v>8.43818426853589</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1417,11 +1417,22 @@
       <c r="A86" s="7" t="n">
         <v>45462</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="4" t="n">
         <v>1.065681137724551</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>8.43818426853589</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9988285904711894</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.842018965600344</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1428,11 +1428,33 @@
       <c r="A87" s="7" t="n">
         <v>45463</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="4" t="n">
         <v>0.9988285904711894</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4" t="n">
         <v>9.842018965600344</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>1.856439393939394</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>27.58544156977363</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8280265071925004</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.722342997954763</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1450,11 +1450,22 @@
       <c r="A89" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="4" t="n">
         <v>0.8280265071925004</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>2.722342997954763</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7488576449912127</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.858107750168435</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1461,11 +1461,22 @@
       <c r="A90" s="7" t="n">
         <v>45467</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="4" t="n">
         <v>0.7488576449912127</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>1.858107750168435</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7350597609561753</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.306692059789939</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1472,11 +1472,22 @@
       <c r="A91" s="7" t="n">
         <v>45468</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="4" t="n">
         <v>0.7350597609561753</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>1.306692059789939</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7205183585313175</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.045562611677321</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1483,11 +1483,22 @@
       <c r="A92" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="4" t="n">
         <v>0.7205183585313175</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>1.045562611677321</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8895988268566042</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.450849398236802</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1494,11 +1494,22 @@
       <c r="A93" s="7" t="n">
         <v>45470</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="4" t="n">
         <v>0.8895988268566042</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>1.450849398236802</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6889396870054511</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6778227497833516</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1505,11 +1505,22 @@
       <c r="A94" s="7" t="n">
         <v>45471</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="4" t="n">
         <v>0.6889396870054511</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>0.6778227497833516</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4985113606685819</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5469480987438534</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1516,11 +1516,22 @@
       <c r="A95" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="4" t="n">
         <v>0.4985113606685819</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>0.5469480987438534</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9903864103042748</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.006536828181545</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1527,11 +1527,22 @@
       <c r="A96" s="7" t="n">
         <v>45475</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4" t="n">
         <v>0.9903864103042748</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>1.006536828181545</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7648662960021181</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6765532813157571</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1538,11 +1538,22 @@
       <c r="A97" s="7" t="n">
         <v>45476</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="4" t="n">
         <v>0.7648662960021181</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>0.6765532813157571</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5970735539624865</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.5484630551722</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1549,11 +1549,22 @@
       <c r="A98" s="7" t="n">
         <v>45477</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="4" t="n">
         <v>0.5970735539624865</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>1.5484630551722</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.855375</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.479336818796307</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1560,11 +1560,22 @@
       <c r="A99" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="4" t="n">
         <v>0.855375</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>1.479336818796307</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9895252738804536</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.833997745779713</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1571,11 +1571,22 @@
       <c r="A100" s="7" t="n">
         <v>45481</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="4" t="n">
         <v>0.9895252738804536</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>1.833997745779713</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8214853508971156</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.476465649948415</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1582,11 +1582,22 @@
       <c r="A101" s="7" t="n">
         <v>45482</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="4" t="n">
         <v>0.8214853508971156</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>1.476465649948415</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9615898120571018</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.854705089060052</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1593,11 +1593,22 @@
       <c r="A102" s="7" t="n">
         <v>45483</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="4" t="n">
         <v>0.9615898120571018</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>1.854705089060052</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5484803500273459</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.37341868010305</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1604,11 +1604,22 @@
       <c r="A103" s="7" t="n">
         <v>45484</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="4" t="n">
         <v>0.5484803500273459</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>1.37341868010305</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6349678980180515</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8777765650468901</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1615,11 +1615,22 @@
       <c r="A104" s="7" t="n">
         <v>45485</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="4" t="n">
         <v>0.6349678980180515</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>0.8777765650468901</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8680164018452076</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.326827093415389</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1626,11 +1626,22 @@
       <c r="A105" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4" t="n">
         <v>0.8680164018452076</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>4.326827093415389</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.003017017866403</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.082959078082858</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1637,11 +1637,22 @@
       <c r="A106" s="7" t="n">
         <v>45489</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="4" t="n">
         <v>1.003017017866403</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>4.082959078082858</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8996842105263158</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.885872533839236</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1648,11 +1648,22 @@
       <c r="A107" s="7" t="n">
         <v>45490</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="4" t="n">
         <v>0.8996842105263158</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>2.885872533839236</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.271794074189284</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.60959670506235</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1659,11 +1659,22 @@
       <c r="A108" s="7" t="n">
         <v>45491</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="4" t="n">
         <v>1.271794074189284</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>20.60959670506235</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6979459910332604</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.712600772169298</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1670,11 +1670,22 @@
       <c r="A109" s="7" t="n">
         <v>45492</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="4" t="n">
         <v>0.6979459910332604</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>1.712600772169298</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6635447819927593</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.371695287962748</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1681,11 +1681,22 @@
       <c r="A110" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="4" t="n">
         <v>0.6635447819927593</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>1.371695287962748</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9441276257850285</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.895659050828256</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1692,11 +1692,22 @@
       <c r="A111" s="7" t="n">
         <v>45496</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="4" t="n">
         <v>0.9441276257850285</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>1.895659050828256</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6893970217267475</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.492138635971117</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1703,11 +1703,22 @@
       <c r="A112" s="7" t="n">
         <v>45497</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="4" t="n">
         <v>0.6893970217267475</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>1.492138635971117</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4701122223070464</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9607860110355597</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1714,11 +1714,22 @@
       <c r="A113" s="7" t="n">
         <v>45498</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="4" t="n">
         <v>0.4701122223070464</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>0.9607860110355597</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.062810404891543</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.278593949645167</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1725,11 +1725,22 @@
       <c r="A114" s="7" t="n">
         <v>45499</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="4" t="n">
         <v>1.062810404891543</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>1.278593949645167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.055818917924181</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.056013551597961</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1736,11 +1736,22 @@
       <c r="A115" s="7" t="n">
         <v>45502</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4" t="n">
         <v>1.055818917924181</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>1.056013551597961</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.040591112870882</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.525499087222751</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1747,11 +1747,22 @@
       <c r="A116" s="7" t="n">
         <v>45503</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="4" t="n">
         <v>1.040591112870882</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>1.525499087222751</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9485837463562803</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.166248304603089</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1758,11 +1758,22 @@
       <c r="A117" s="7" t="n">
         <v>45504</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4" t="n">
         <v>0.9485837463562803</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>1.166248304603089</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9804339609842134</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.225476392063139</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1769,11 +1769,22 @@
       <c r="A118" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="4" t="n">
         <v>0.9804339609842134</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>1.225476392063139</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.04659484563554</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.034558339175353</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1780,11 +1780,22 @@
       <c r="A119" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="4" t="n">
         <v>1.04659484563554</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>1.034558339175353</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9310675620117856</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.248480594599783</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1791,11 +1791,22 @@
       <c r="A120" s="7" t="n">
         <v>45509</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="4" t="n">
         <v>0.9310675620117856</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4" t="n">
         <v>1.248480594599783</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.017717769042329</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.162286892234644</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1802,11 +1802,22 @@
       <c r="A121" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="4" t="n">
         <v>1.017717769042329</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4" t="n">
         <v>4.162286892234644</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9090445209848195</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.9624162272733</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1813,11 +1813,22 @@
       <c r="A122" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="4" t="n">
         <v>0.9090445209848195</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4" t="n">
         <v>3.9624162272733</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.066280303648682</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.959922585616201</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1824,11 +1824,22 @@
       <c r="A123" s="7" t="n">
         <v>45512</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="4" t="n">
         <v>1.066280303648682</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4" t="n">
         <v>2.959922585616201</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9522147651006712</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.566931605102942</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1835,11 +1835,22 @@
       <c r="A124" s="7" t="n">
         <v>45513</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="4" t="n">
         <v>0.9522147651006712</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4" t="n">
         <v>2.566931605102942</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.20526775515689</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.682478382619935</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1846,11 +1846,22 @@
       <c r="A125" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="4" t="n">
         <v>1.20526775515689</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4" t="n">
         <v>5.682478382619935</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.105307855626327</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.353556141689669</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1857,11 +1857,22 @@
       <c r="A126" s="7" t="n">
         <v>45517</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="4" t="n">
         <v>1.105307855626327</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4" t="n">
         <v>7.353556141689669</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.126825396825397</v>
+      </c>
+      <c r="C127" t="n">
+        <v>10.65996140687234</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1868,11 +1868,22 @@
       <c r="A127" s="7" t="n">
         <v>45518</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="4" t="n">
         <v>1.126825396825397</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4" t="n">
         <v>10.65996140687234</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.214871062326141</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.203297585504763</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1879,11 +1879,22 @@
       <c r="A128" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="4" t="n">
         <v>1.214871062326141</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="4" t="n">
         <v>6.203297585504763</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.087811941061238</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.441791915672423</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1890,11 +1890,22 @@
       <c r="A129" s="7" t="n">
         <v>45520</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="4" t="n">
         <v>1.087811941061238</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="4" t="n">
         <v>3.441791915672423</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.575480059084195</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.091222314054432</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1901,11 +1901,22 @@
       <c r="A130" s="7" t="n">
         <v>45523</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4" t="n">
         <v>0.575480059084195</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4" t="n">
         <v>1.091222314054432</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6472798854688618</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.915302972523502</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1912,11 +1912,22 @@
       <c r="A131" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4" t="n">
         <v>0.6472798854688618</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4" t="n">
         <v>1.915302972523502</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.701531041444675</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.023349613585727</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1923,11 +1923,22 @@
       <c r="A132" s="7" t="n">
         <v>45525</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4" t="n">
         <v>0.701531041444675</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4" t="n">
         <v>1.023349613585727</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7979602874140462</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.677444384386925</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1934,11 +1934,22 @@
       <c r="A133" s="7" t="n">
         <v>45526</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4" t="n">
         <v>0.7979602874140462</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4" t="n">
         <v>1.677444384386925</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.664304600740349</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.439008715312453</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1945,11 +1945,22 @@
       <c r="A134" s="7" t="n">
         <v>45527</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="4" t="n">
         <v>0.664304600740349</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="4" t="n">
         <v>1.439008715312453</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.639018691588785</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.85837956735146</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1956,11 +1956,22 @@
       <c r="A135" s="7" t="n">
         <v>45530</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="4" t="n">
         <v>0.639018691588785</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="4" t="n">
         <v>1.85837956735146</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5783630260779757</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5833869681406608</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1967,11 +1967,22 @@
       <c r="A136" s="7" t="n">
         <v>45531</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="4" t="n">
         <v>0.5783630260779757</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="4" t="n">
         <v>0.5833869681406608</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.6242528226699137</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.213577688778471</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1978,11 +1978,22 @@
       <c r="A137" s="7" t="n">
         <v>45532</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="4" t="n">
         <v>0.6242528226699137</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="4" t="n">
         <v>1.213577688778471</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6490561090718406</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.085930814761583</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -1989,11 +1989,22 @@
       <c r="A138" s="7" t="n">
         <v>45533</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="4" t="n">
         <v>0.6490561090718406</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="4" t="n">
         <v>1.085930814761583</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.6488733099649474</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.3973008866532</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2000,11 +2000,22 @@
       <c r="A139" s="7" t="n">
         <v>45534</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="4" t="n">
         <v>0.6488733099649474</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="4" t="n">
         <v>1.3973008866532</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.8642914331465172</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.548518810900684</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2011,11 +2011,22 @@
       <c r="A140" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="4" t="n">
         <v>0.8642914331465172</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="4" t="n">
         <v>2.548518810900684</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8254623978969111</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.792966253782821</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2022,11 +2022,22 @@
       <c r="A141" s="7" t="n">
         <v>45538</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="4" t="n">
         <v>0.8254623978969111</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="4" t="n">
         <v>1.792966253782821</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7250466752836421</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.222378448723726</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2033,11 +2033,22 @@
       <c r="A142" s="7" t="n">
         <v>45539</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="4" t="n">
         <v>0.7250466752836421</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="4" t="n">
         <v>1.222378448723726</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.821723641324945</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.22467350105596</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2044,11 +2044,22 @@
       <c r="A143" s="7" t="n">
         <v>45540</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="4" t="n">
         <v>0.821723641324945</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="4" t="n">
         <v>1.22467350105596</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8204713194354526</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.638245763420564</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2055,11 +2055,22 @@
       <c r="A144" s="7" t="n">
         <v>45541</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="4" t="n">
         <v>0.8204713194354526</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="4" t="n">
         <v>1.638245763420564</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5983258370814593</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.740718813790778</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2066,11 +2066,22 @@
       <c r="A145" s="7" t="n">
         <v>45544</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="4" t="n">
         <v>0.5983258370814593</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="4" t="n">
         <v>3.740718813790778</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9304635761589404</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.745849198579819</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2077,11 +2077,22 @@
       <c r="A146" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="4" t="n">
         <v>0.9304635761589404</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="4" t="n">
         <v>2.745849198579819</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7388006725200822</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.428612928509007</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2088,11 +2088,22 @@
       <c r="A147" s="7" t="n">
         <v>45546</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="4" t="n">
         <v>0.7388006725200822</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="4" t="n">
         <v>1.428612928509007</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.6100967947603315</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.476861238890244</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2099,11 +2099,22 @@
       <c r="A148" s="7" t="n">
         <v>45547</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="4" t="n">
         <v>0.6100967947603315</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="4" t="n">
         <v>1.476861238890244</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.6155071694105151</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.056530281693331</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2110,11 +2110,22 @@
       <c r="A149" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="4" t="n">
         <v>0.6155071694105151</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="4" t="n">
         <v>2.056530281693331</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.196176060545708</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.215569836248926</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2121,11 +2121,22 @@
       <c r="A150" s="7" t="n">
         <v>45551</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="4" t="n">
         <v>1.196176060545708</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="4" t="n">
         <v>4.215569836248926</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.123895809739524</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.066046139271438</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2132,11 +2132,22 @@
       <c r="A151" s="7" t="n">
         <v>45552</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="4" t="n">
         <v>1.123895809739524</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="4" t="n">
         <v>3.066046139271438</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9065284682487571</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.980711343256802</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2143,11 +2143,22 @@
       <c r="A152" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="4" t="n">
         <v>0.9065284682487571</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="4" t="n">
         <v>5.980711343256802</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9339903611848162</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.898573413820145</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2154,11 +2154,22 @@
       <c r="A153" s="7" t="n">
         <v>45554</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="4" t="n">
         <v>0.9339903611848162</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="4" t="n">
         <v>7.898573413820145</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.6363552692130695</v>
+      </c>
+      <c r="C154" t="n">
+        <v>20.93175853097893</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2165,10 +2165,21 @@
       <c r="A154" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="4" t="n">
         <v>0.6363552692130695</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="4" t="n">
+        <v>20.93175853097893</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.6363552692130695</v>
+      </c>
+      <c r="C155" t="n">
         <v>20.93175853097893</v>
       </c>
     </row>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2176,11 +2176,22 @@
       <c r="A155" s="7" t="n">
         <v>45558</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="4" t="n">
         <v>0.6363552692130695</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="4" t="n">
         <v>20.93175853097893</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.5818603485019431</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6997784240655325</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2187,11 +2187,22 @@
       <c r="A156" s="7" t="n">
         <v>45559</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="4" t="n">
         <v>0.5818603485019431</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="4" t="n">
         <v>0.6997784240655325</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.6682711393410083</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7759801246792133</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2198,11 +2198,22 @@
       <c r="A157" s="7" t="n">
         <v>45560</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="4" t="n">
         <v>0.6682711393410083</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="4" t="n">
         <v>0.7759801246792133</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7946063607058589</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.5632275606613949</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2209,11 +2209,22 @@
       <c r="A158" s="7" t="n">
         <v>45561</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="4" t="n">
         <v>0.7946063607058589</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="4" t="n">
         <v>0.5632275606613949</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.833993507460464</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.9412302526324398</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2220,11 +2220,22 @@
       <c r="A159" s="7" t="n">
         <v>45562</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="4" t="n">
         <v>0.833993507460464</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="4" t="n">
         <v>0.9412302526324398</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.6521077171947854</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.8616369453922673</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2231,11 +2231,22 @@
       <c r="A160" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="4" t="n">
         <v>0.6521077171947854</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="4" t="n">
         <v>0.8616369453922673</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7458227219081931</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.286967923371883</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2242,11 +2242,22 @@
       <c r="A161" s="7" t="n">
         <v>45566</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="4" t="n">
         <v>0.7458227219081931</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="4" t="n">
         <v>1.286967923371883</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6287031970608927</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.988155666151333</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2253,11 +2253,22 @@
       <c r="A162" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="4" t="n">
         <v>0.6287031970608927</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="4" t="n">
         <v>0.988155666151333</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8360119047619048</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.2591244330685</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2264,11 +2264,22 @@
       <c r="A163" s="7" t="n">
         <v>45568</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="4" t="n">
         <v>0.8360119047619048</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="4" t="n">
         <v>1.2591244330685</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8004881025015254</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.060125880965129</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2275,11 +2275,22 @@
       <c r="A164" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="4" t="n">
         <v>0.8004881025015254</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="4" t="n">
         <v>1.060125880965129</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6472622816273889</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8922076699361087</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>

--- a/pcrvale.xlsx
+++ b/pcrvale.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
@@ -2286,11 +2286,22 @@
       <c r="A165" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="4" t="n">
         <v>0.6472622816273889</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="4" t="n">
         <v>0.8922076699361087</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9179125628852831</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.216219867272056</v>
       </c>
     </row>
     <row r="1048553" ht="12.75" customHeight="1" s="5"/>
